--- a/detailed_channel_info/PIIH-BsD2-I_PANAR.xlsx
+++ b/detailed_channel_info/PIIH-BsD2-I_PANAR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/189?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="64" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="96" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,17 +777,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
